--- a/haken/エクセル/過去分/output_2024-04-01.xlsx
+++ b/haken/エクセル/過去分/output_2024-04-01.xlsx
@@ -474,7 +474,16 @@
           <t>1408-710-0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>36mm</t>
@@ -490,11 +499,14 @@
           <t>118205</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>White
-sales guarantee (original)</t>
+          <t>White</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -514,6 +526,11 @@
           <t>1408-712-2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>1988</t>
@@ -534,10 +551,14 @@
           <t>18078</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>sales box (original)</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -557,6 +578,11 @@
           <t>1408-709-7</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>1979</t>
@@ -577,7 +603,11 @@
           <t>18038</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Silver</t>
@@ -600,6 +630,11 @@
           <t>1408-707-5</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>1988</t>
@@ -620,7 +655,11 @@
           <t>18038</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Champagne</t>
@@ -643,6 +682,11 @@
           <t>1408-719-9</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>1986</t>
@@ -663,11 +707,14 @@
           <t>16013</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Champagne
-sales guarantee (original), sales box (original)</t>
+          <t>Champagne</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -687,6 +734,11 @@
           <t>1408-708-6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>1981</t>
@@ -707,7 +759,11 @@
           <t>18038</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>STRAP</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Blue</t>
@@ -750,11 +806,14 @@
           <t>115234</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original), sales box (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -774,7 +833,16 @@
           <t>1408-743-9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>YATCH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>35mm</t>
@@ -790,11 +858,14 @@
           <t>168622</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Silver
-sales guarantee (original), sales box (original)</t>
+          <t>Silver, sales box (original)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -814,6 +885,11 @@
           <t>1408-742-8</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>1988</t>
@@ -834,7 +910,11 @@
           <t>16234</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>Black</t>
@@ -857,7 +937,16 @@
           <t>1408-705-3</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -873,11 +962,14 @@
           <t>116900</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original), sales box (original)</t>
+          <t>Black, sales box (original)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -897,7 +989,16 @@
           <t>1408-700-8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DAYTONA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -913,7 +1014,11 @@
           <t>116503</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>White</t>
@@ -936,7 +1041,16 @@
           <t>1408-698-1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DAYTONA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -952,7 +1066,11 @@
           <t>116503</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Black</t>
@@ -975,6 +1093,11 @@
           <t>1408-699-2</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>1999</t>
@@ -995,7 +1118,11 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>Silver</t>
@@ -1018,6 +1145,11 @@
           <t>1408-702-0</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DAYTONA</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>2010</t>
@@ -1038,11 +1170,14 @@
           <t>116520</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>White
-sales guarantee (original), sales box (original)</t>
+          <t>White</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1062,6 +1197,11 @@
           <t>1408-703-1</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GMT</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>1995</t>
@@ -1082,7 +1222,11 @@
           <t>16700</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>Black</t>
@@ -1105,6 +1249,11 @@
           <t>1408-706-4</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>1981</t>
@@ -1125,10 +1274,14 @@
           <t>18038</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>sales box (original)</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1148,6 +1301,11 @@
           <t>1408-701-9</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>1995</t>
@@ -1168,7 +1326,11 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>White</t>
@@ -1191,7 +1353,16 @@
           <t>1408-704-2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DEEP SEA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>44mm</t>
@@ -1210,8 +1381,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original), sales box (original)</t>
+          <t>Black, sales box (original)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1231,6 +1401,11 @@
           <t>1408-518-2</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>1991</t>
@@ -1251,7 +1426,11 @@
           <t>68278</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>sales box (original)</t>
@@ -1274,6 +1453,11 @@
           <t>1408-529-5</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>1995</t>
@@ -1294,7 +1478,11 @@
           <t>14010</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Grey</t>
@@ -1317,7 +1505,16 @@
           <t>1408-697-0</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>36mm</t>
@@ -1333,7 +1530,11 @@
           <t>116233</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>White</t>
@@ -1356,6 +1557,11 @@
           <t>1408-669-6</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>1988</t>
@@ -1376,7 +1582,11 @@
           <t>68279</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Silver</t>
@@ -1399,6 +1609,11 @@
           <t>1408-517-1</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>2000</t>
@@ -1419,11 +1634,14 @@
           <t>76188</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Blue
-sales guarantee (original), sales box (original)</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1443,6 +1661,11 @@
           <t>1408-696-9</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>1987</t>
@@ -1463,7 +1686,11 @@
           <t>16013</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Champagne</t>
@@ -1486,6 +1713,11 @@
           <t>1408-560-4</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SUB</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>2008</t>
@@ -1503,10 +1735,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16013</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>16610T</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Black</t>
@@ -1529,6 +1765,11 @@
           <t>1408-499-6</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>1991</t>
@@ -1549,7 +1790,11 @@
           <t>16233</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Champagne</t>
@@ -1592,11 +1837,14 @@
           <t>116400</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1616,7 +1864,11 @@
           <t>1408-493-0</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -1632,11 +1884,14 @@
           <t>116400</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1676,11 +1931,14 @@
           <t>116400</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1700,6 +1958,11 @@
           <t>1408-489-4</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>2010</t>
@@ -1720,7 +1983,11 @@
           <t>116200</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Black</t>
@@ -1743,6 +2010,11 @@
           <t>1408-490-7</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>1996</t>
@@ -1763,7 +2035,11 @@
           <t>69174</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>sales box (original)</t>
@@ -1786,7 +2062,16 @@
           <t>1408-491-8</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>41mm</t>
@@ -1802,11 +2087,14 @@
           <t>116300</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Blue
-sales guarantee (original)</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1826,6 +2114,11 @@
           <t>1408-482-7</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GMT</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>1999</t>
@@ -1846,11 +2139,14 @@
           <t>16713</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original), sales box (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1890,7 +2186,11 @@
           <t>15010</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Water resistance</t>
@@ -1913,6 +2213,11 @@
           <t>1408-477-0</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DAYTONA</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>2002</t>
@@ -1933,11 +2238,14 @@
           <t>116528</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1957,6 +2265,11 @@
           <t>1408-478-1</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DAYTONA</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>1996</t>
@@ -1977,7 +2290,11 @@
           <t>16528</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>White</t>
@@ -2000,7 +2317,16 @@
           <t>1408-481-6</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SUB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -2016,11 +2342,14 @@
           <t>114060</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Black
-sales guarantee (original), sales box (original)</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2040,6 +2369,11 @@
           <t>1408-473-6</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>1999</t>
@@ -2060,11 +2394,14 @@
           <t>16220</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>White
-sales guarantee (original)</t>
+          <t>White</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2084,7 +2421,16 @@
           <t>1408-471-4</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>YATCH</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -2100,10 +2446,14 @@
           <t>116622</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>sales box (original)</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2123,6 +2473,11 @@
           <t>1408-474-7</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>1979</t>
@@ -2143,10 +2498,14 @@
           <t>18038</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>sales box (original)</t>
+          <t>Champagne</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2166,7 +2525,16 @@
           <t>1408-472-5</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GMT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>40mm</t>
@@ -2182,11 +2550,14 @@
           <t>16753</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Brown
-sales guarantee (original)</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2206,6 +2577,11 @@
           <t>1408-403-2</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>1994</t>
@@ -2226,7 +2602,11 @@
           <t>16233</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>White</t>
